--- a/2_Signals/Embedded_Qs/2_2_Embedded_Qs.xlsx
+++ b/2_Signals/Embedded_Qs/2_2_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="5"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="122">
   <si>
     <t>Correct</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>First figure out which of the time domain plots has a low frequency signal that matches that of the frequency domain plot.  Then look at the higher frequency waves.  To find frequency, count peaks in 0.1 s, and then multiply by 10 (this tells you the number of oscillations in a second).</t>
+  </si>
+  <si>
+    <t>Always look at the name!  A low pass filter allows low frequency signals to "pass" while filtering out the high frequency waves.</t>
   </si>
 </sst>
 </file>
@@ -801,7 +804,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,18 +822,24 @@
       <c r="B1" s="3"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,7 +1421,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1748,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
